--- a/SensitivityAnalysisSpreadSheets/Ordinance Arm Time/OrdinanceArmTime10 aircraft 9_1_-50%.xlsx
+++ b/SensitivityAnalysisSpreadSheets/Ordinance Arm Time/OrdinanceArmTime10 aircraft 9_1_-50%.xlsx
@@ -78934,6 +78934,9 @@
           <t>Run 1</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>12.43233333333333</v>
+      </c>
       <c r="C2" t="n">
         <v>426.6472222222222</v>
       </c>
@@ -78989,6 +78992,9 @@
           <t>Run 2</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>11.679</v>
+      </c>
       <c r="C3" t="n">
         <v>425.1755555555556</v>
       </c>
@@ -79044,6 +79050,9 @@
           <t>Run 3</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>14.85566666666667</v>
+      </c>
       <c r="C4" t="n">
         <v>445.7311111111111</v>
       </c>
@@ -79099,6 +79108,9 @@
           <t>Run 4</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>12.773</v>
+      </c>
       <c r="C5" t="n">
         <v>426.2355555555555</v>
       </c>
@@ -79154,6 +79166,9 @@
           <t>Run 5</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>13.01583333333333</v>
+      </c>
       <c r="C6" t="n">
         <v>440.0783333333333</v>
       </c>
@@ -79209,6 +79224,9 @@
           <t>Run 6</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>13.47833333333333</v>
+      </c>
       <c r="C7" t="n">
         <v>417.1594444444445</v>
       </c>
@@ -79264,6 +79282,9 @@
           <t>Run 7</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>12.93066666666667</v>
+      </c>
       <c r="C8" t="n">
         <v>437.3811111111112</v>
       </c>
@@ -79319,6 +79340,9 @@
           <t>Run 8</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>12.91183333333333</v>
+      </c>
       <c r="C9" t="n">
         <v>435.5738888888889</v>
       </c>
@@ -79374,6 +79398,9 @@
           <t>Run 9</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>13.0045</v>
+      </c>
       <c r="C10" t="n">
         <v>422.1977777777777</v>
       </c>
@@ -79429,6 +79456,9 @@
           <t>Run 10</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>14.40466666666667</v>
+      </c>
       <c r="C11" t="n">
         <v>430.38</v>
       </c>
@@ -79484,6 +79514,9 @@
           <t>Run 11</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>12.9025</v>
+      </c>
       <c r="C12" t="n">
         <v>465.5027777777778</v>
       </c>
@@ -79539,6 +79572,9 @@
           <t>Run 12</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>12.48033333333333</v>
+      </c>
       <c r="C13" t="n">
         <v>424.3927777777778</v>
       </c>
@@ -79594,6 +79630,9 @@
           <t>Run 13</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>12.311</v>
+      </c>
       <c r="C14" t="n">
         <v>407.3883333333333</v>
       </c>
@@ -79649,6 +79688,9 @@
           <t>Run 14</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>12.0345</v>
+      </c>
       <c r="C15" t="n">
         <v>424.6038888888889</v>
       </c>
@@ -79704,6 +79746,9 @@
           <t>Run 15</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>12.44633333333333</v>
+      </c>
       <c r="C16" t="n">
         <v>424.4211111111111</v>
       </c>
@@ -79759,6 +79804,9 @@
           <t>Run 16</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>12.3535</v>
+      </c>
       <c r="C17" t="n">
         <v>435.1694444444444</v>
       </c>
@@ -79814,6 +79862,9 @@
           <t>Run 17</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>14.916</v>
+      </c>
       <c r="C18" t="n">
         <v>446.1605555555555</v>
       </c>
@@ -79869,6 +79920,9 @@
           <t>Run 18</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>13.9025</v>
+      </c>
       <c r="C19" t="n">
         <v>441.6161111111111</v>
       </c>
@@ -79924,6 +79978,9 @@
           <t>Run 19</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>12.3325</v>
+      </c>
       <c r="C20" t="n">
         <v>416.0155555555556</v>
       </c>
@@ -79979,6 +80036,9 @@
           <t>Run 20</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>13.547</v>
+      </c>
       <c r="C21" t="n">
         <v>454.3333333333333</v>
       </c>
@@ -80034,6 +80094,9 @@
           <t>Run 21</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>11.81466666666667</v>
+      </c>
       <c r="C22" t="n">
         <v>419.4727777777778</v>
       </c>
@@ -80089,6 +80152,9 @@
           <t>Run 22</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>13.788</v>
+      </c>
       <c r="C23" t="n">
         <v>461.3255555555555</v>
       </c>
@@ -80144,6 +80210,9 @@
           <t>Run 23</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>13.36683333333333</v>
+      </c>
       <c r="C24" t="n">
         <v>438.8327777777777</v>
       </c>
@@ -80199,6 +80268,9 @@
           <t>Run 24</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>12.73616666666667</v>
+      </c>
       <c r="C25" t="n">
         <v>425.9699999999999</v>
       </c>
@@ -80254,6 +80326,9 @@
           <t>Run 25</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>12.7805</v>
+      </c>
       <c r="C26" t="n">
         <v>432.7416666666667</v>
       </c>
@@ -80309,6 +80384,9 @@
           <t>Run 26</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>12.22133333333333</v>
+      </c>
       <c r="C27" t="n">
         <v>424.8661111111111</v>
       </c>
@@ -80364,6 +80442,9 @@
           <t>Run 27</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>13.52683333333333</v>
+      </c>
       <c r="C28" t="n">
         <v>446.3766666666667</v>
       </c>
@@ -80419,6 +80500,9 @@
           <t>Run 28</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>12.13</v>
+      </c>
       <c r="C29" t="n">
         <v>430.8772222222223</v>
       </c>
@@ -80474,6 +80558,9 @@
           <t>Run 29</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>14.05716666666667</v>
+      </c>
       <c r="C30" t="n">
         <v>450.5355555555556</v>
       </c>
@@ -80528,6 +80615,9 @@
         <is>
           <t>Run 30</t>
         </is>
+      </c>
+      <c r="B31" t="n">
+        <v>12.15983333333333</v>
       </c>
       <c r="C31" t="n">
         <v>431.9211111111111</v>
